--- a/public/Pelanggan/penutun_Darmaraja.xlsx
+++ b/public/Pelanggan/penutun_Darmaraja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riank\Downloads\OKE Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28E491B-A04E-4C93-9EA9-480F665B6002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A43611-035E-41DB-8151-EF3D47AD2182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
